--- a/natmiOut/YoungD2/LR-pairs_lrc2p/C3-Cr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/C3-Cr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,119 +537,119 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H2">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I2">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J2">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.646782384266252</v>
+        <v>0.73425</v>
       </c>
       <c r="N2">
-        <v>0.646782384266252</v>
+        <v>2.20275</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3688894597676453</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.3688894597676453</v>
       </c>
       <c r="Q2">
-        <v>0.126953392223565</v>
+        <v>0.4618731095</v>
       </c>
       <c r="R2">
-        <v>0.126953392223565</v>
+        <v>4.1568579855</v>
       </c>
       <c r="S2">
-        <v>0.0008227885447038991</v>
+        <v>0.0008919070079394372</v>
       </c>
       <c r="T2">
-        <v>0.0008227885447038991</v>
+        <v>0.0008919070079394374</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>80.0008696479444</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H3">
-        <v>80.0008696479444</v>
+        <v>1.887122</v>
       </c>
       <c r="I3">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J3">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.646782384266252</v>
+        <v>0.203534</v>
       </c>
       <c r="N3">
-        <v>0.646782384266252</v>
+        <v>0.610602</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1022561080072835</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1022561080072835</v>
       </c>
       <c r="Q3">
-        <v>51.74315321427111</v>
+        <v>0.1280311630493333</v>
       </c>
       <c r="R3">
-        <v>51.74315321427111</v>
+        <v>1.152280467444</v>
       </c>
       <c r="S3">
-        <v>0.3353488472099174</v>
+        <v>0.0002472365011289689</v>
       </c>
       <c r="T3">
-        <v>0.3353488472099174</v>
+        <v>0.0002472365011289689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.7058855844917</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H4">
-        <v>27.7058855844917</v>
+        <v>1.887122</v>
       </c>
       <c r="I4">
-        <v>0.1161379474070241</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J4">
-        <v>0.1161379474070241</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.646782384266252</v>
+        <v>0.8811113333333332</v>
       </c>
       <c r="N4">
-        <v>0.646782384266252</v>
+        <v>2.643334</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.442673045622721</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.4426730456227211</v>
       </c>
       <c r="Q4">
-        <v>17.91967873654552</v>
+        <v>0.5542548605275556</v>
       </c>
       <c r="R4">
-        <v>17.91967873654552</v>
+        <v>4.988293744748</v>
       </c>
       <c r="S4">
-        <v>0.1161379474070241</v>
+        <v>0.001070302176336209</v>
       </c>
       <c r="T4">
-        <v>0.1161379474070241</v>
+        <v>0.001070302176336209</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.1060586039336</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H5">
-        <v>30.1060586039336</v>
+        <v>1.887122</v>
       </c>
       <c r="I5">
-        <v>0.1261990287267179</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J5">
-        <v>0.1261990287267179</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.646782384266252</v>
+        <v>0.1715383333333333</v>
       </c>
       <c r="N5">
-        <v>0.646782384266252</v>
+        <v>0.514615</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.08618138660235015</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.08618138660235015</v>
       </c>
       <c r="Q5">
-        <v>19.47206836471169</v>
+        <v>0.1079045875588889</v>
       </c>
       <c r="R5">
-        <v>19.47206836471169</v>
+        <v>0.9711412880300001</v>
       </c>
       <c r="S5">
-        <v>0.1261990287267179</v>
+        <v>0.0002083707751178089</v>
       </c>
       <c r="T5">
-        <v>0.1261990287267179</v>
+        <v>0.0002083707751178089</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,114 +785,1230 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>100.160602978402</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H6">
-        <v>100.160602978402</v>
+        <v>248.636413</v>
       </c>
       <c r="I6">
-        <v>0.4198547202357866</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J6">
-        <v>0.4198547202357866</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.646782384266252</v>
+        <v>0.73425</v>
       </c>
       <c r="N6">
-        <v>0.646782384266252</v>
+        <v>2.20275</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.3688894597676453</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.3688894597676453</v>
       </c>
       <c r="Q6">
-        <v>64.7821136039163</v>
+        <v>60.85376208175</v>
       </c>
       <c r="R6">
-        <v>64.7821136039163</v>
+        <v>547.6838587357501</v>
       </c>
       <c r="S6">
-        <v>0.4198547202357866</v>
+        <v>0.1175125716215614</v>
       </c>
       <c r="T6">
-        <v>0.4198547202357866</v>
+        <v>0.1175125716215614</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>82.87880433333333</v>
+      </c>
+      <c r="H7">
+        <v>248.636413</v>
+      </c>
+      <c r="I7">
+        <v>0.3185576830944961</v>
+      </c>
+      <c r="J7">
+        <v>0.3185576830944961</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.203534</v>
+      </c>
+      <c r="N7">
+        <v>0.610602</v>
+      </c>
+      <c r="O7">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="P7">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="Q7">
+        <v>16.86865456118067</v>
+      </c>
+      <c r="R7">
+        <v>151.817891050626</v>
+      </c>
+      <c r="S7">
+        <v>0.03257446884906078</v>
+      </c>
+      <c r="T7">
+        <v>0.03257446884906078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>82.87880433333333</v>
+      </c>
+      <c r="H8">
+        <v>248.636413</v>
+      </c>
+      <c r="I8">
+        <v>0.3185576830944961</v>
+      </c>
+      <c r="J8">
+        <v>0.3185576830944961</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.8811113333333332</v>
+      </c>
+      <c r="N8">
+        <v>2.643334</v>
+      </c>
+      <c r="O8">
+        <v>0.442673045622721</v>
+      </c>
+      <c r="P8">
+        <v>0.4426730456227211</v>
+      </c>
+      <c r="Q8">
+        <v>73.02545379121577</v>
+      </c>
+      <c r="R8">
+        <v>657.2290841209419</v>
+      </c>
+      <c r="S8">
+        <v>0.1410168997819582</v>
+      </c>
+      <c r="T8">
+        <v>0.1410168997819582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>82.87880433333333</v>
+      </c>
+      <c r="H9">
+        <v>248.636413</v>
+      </c>
+      <c r="I9">
+        <v>0.3185576830944961</v>
+      </c>
+      <c r="J9">
+        <v>0.3185576830944961</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1715383333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.514615</v>
+      </c>
+      <c r="O9">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="P9">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="Q9">
+        <v>14.21689196399945</v>
+      </c>
+      <c r="R9">
+        <v>127.952027675995</v>
+      </c>
+      <c r="S9">
+        <v>0.02745374284191571</v>
+      </c>
+      <c r="T9">
+        <v>0.02745374284191571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.390443725935655</v>
-      </c>
-      <c r="H7">
-        <v>0.390443725935655</v>
-      </c>
-      <c r="I7">
-        <v>0.001636667875850162</v>
-      </c>
-      <c r="J7">
-        <v>0.001636667875850162</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.646782384266252</v>
-      </c>
-      <c r="N7">
-        <v>0.646782384266252</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>0.252532123982462</v>
-      </c>
-      <c r="R7">
-        <v>0.252532123982462</v>
-      </c>
-      <c r="S7">
-        <v>0.001636667875850162</v>
-      </c>
-      <c r="T7">
-        <v>0.001636667875850162</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>41.02052933333334</v>
+      </c>
+      <c r="H10">
+        <v>123.061588</v>
+      </c>
+      <c r="I10">
+        <v>0.1576688381166818</v>
+      </c>
+      <c r="J10">
+        <v>0.1576688381166818</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.73425</v>
+      </c>
+      <c r="N10">
+        <v>2.20275</v>
+      </c>
+      <c r="O10">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="P10">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="Q10">
+        <v>30.119323663</v>
+      </c>
+      <c r="R10">
+        <v>271.073912967</v>
+      </c>
+      <c r="S10">
+        <v>0.05816237251505508</v>
+      </c>
+      <c r="T10">
+        <v>0.05816237251505509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>41.02052933333334</v>
+      </c>
+      <c r="H11">
+        <v>123.061588</v>
+      </c>
+      <c r="I11">
+        <v>0.1576688381166818</v>
+      </c>
+      <c r="J11">
+        <v>0.1576688381166818</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.203534</v>
+      </c>
+      <c r="N11">
+        <v>0.610602</v>
+      </c>
+      <c r="O11">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="P11">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="Q11">
+        <v>8.349072417330667</v>
+      </c>
+      <c r="R11">
+        <v>75.141651755976</v>
+      </c>
+      <c r="S11">
+        <v>0.01612260173984232</v>
+      </c>
+      <c r="T11">
+        <v>0.01612260173984232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>41.02052933333334</v>
+      </c>
+      <c r="H12">
+        <v>123.061588</v>
+      </c>
+      <c r="I12">
+        <v>0.1576688381166818</v>
+      </c>
+      <c r="J12">
+        <v>0.1576688381166818</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.8811113333333332</v>
+      </c>
+      <c r="N12">
+        <v>2.643334</v>
+      </c>
+      <c r="O12">
+        <v>0.442673045622721</v>
+      </c>
+      <c r="P12">
+        <v>0.4426730456227211</v>
+      </c>
+      <c r="Q12">
+        <v>36.14365329493244</v>
+      </c>
+      <c r="R12">
+        <v>325.292879654392</v>
+      </c>
+      <c r="S12">
+        <v>0.06979574476890732</v>
+      </c>
+      <c r="T12">
+        <v>0.06979574476890732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>41.02052933333334</v>
+      </c>
+      <c r="H13">
+        <v>123.061588</v>
+      </c>
+      <c r="I13">
+        <v>0.1576688381166818</v>
+      </c>
+      <c r="J13">
+        <v>0.1576688381166818</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1715383333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.514615</v>
+      </c>
+      <c r="O13">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="P13">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="Q13">
+        <v>7.036593234291112</v>
+      </c>
+      <c r="R13">
+        <v>63.32933910862</v>
+      </c>
+      <c r="S13">
+        <v>0.01358811909287712</v>
+      </c>
+      <c r="T13">
+        <v>0.01358811909287712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>30.16156866666667</v>
+      </c>
+      <c r="H14">
+        <v>90.484706</v>
+      </c>
+      <c r="I14">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="J14">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.73425</v>
+      </c>
+      <c r="N14">
+        <v>2.20275</v>
+      </c>
+      <c r="O14">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="P14">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="Q14">
+        <v>22.1461317935</v>
+      </c>
+      <c r="R14">
+        <v>199.3151861415</v>
+      </c>
+      <c r="S14">
+        <v>0.0427656205548659</v>
+      </c>
+      <c r="T14">
+        <v>0.04276562055486591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>30.16156866666667</v>
+      </c>
+      <c r="H15">
+        <v>90.484706</v>
+      </c>
+      <c r="I15">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="J15">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.203534</v>
+      </c>
+      <c r="N15">
+        <v>0.610602</v>
+      </c>
+      <c r="O15">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="P15">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="Q15">
+        <v>6.138904717001333</v>
+      </c>
+      <c r="R15">
+        <v>55.250142453012</v>
+      </c>
+      <c r="S15">
+        <v>0.01185462419341379</v>
+      </c>
+      <c r="T15">
+        <v>0.01185462419341379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>30.16156866666667</v>
+      </c>
+      <c r="H16">
+        <v>90.484706</v>
+      </c>
+      <c r="I16">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="J16">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.8811113333333332</v>
+      </c>
+      <c r="N16">
+        <v>2.643334</v>
+      </c>
+      <c r="O16">
+        <v>0.442673045622721</v>
+      </c>
+      <c r="P16">
+        <v>0.4426730456227211</v>
+      </c>
+      <c r="Q16">
+        <v>26.57569998331156</v>
+      </c>
+      <c r="R16">
+        <v>239.181299849804</v>
+      </c>
+      <c r="S16">
+        <v>0.05131940476394321</v>
+      </c>
+      <c r="T16">
+        <v>0.05131940476394321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>30.16156866666667</v>
+      </c>
+      <c r="H17">
+        <v>90.484706</v>
+      </c>
+      <c r="I17">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="J17">
+        <v>0.115930719684436</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1715383333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.514615</v>
+      </c>
+      <c r="O17">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="P17">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="Q17">
+        <v>5.173865219798889</v>
+      </c>
+      <c r="R17">
+        <v>46.56478697819001</v>
+      </c>
+      <c r="S17">
+        <v>0.009991070172213061</v>
+      </c>
+      <c r="T17">
+        <v>0.009991070172213061</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H18">
+        <v>315.250706</v>
+      </c>
+      <c r="I18">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J18">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.73425</v>
+      </c>
+      <c r="N18">
+        <v>2.20275</v>
+      </c>
+      <c r="O18">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="P18">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="Q18">
+        <v>77.1576102935</v>
+      </c>
+      <c r="R18">
+        <v>694.4184926414999</v>
+      </c>
+      <c r="S18">
+        <v>0.148996362683099</v>
+      </c>
+      <c r="T18">
+        <v>0.148996362683099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H19">
+        <v>315.250706</v>
+      </c>
+      <c r="I19">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J19">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.203534</v>
+      </c>
+      <c r="N19">
+        <v>0.610602</v>
+      </c>
+      <c r="O19">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="P19">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="Q19">
+        <v>21.38807906500133</v>
+      </c>
+      <c r="R19">
+        <v>192.492711585012</v>
+      </c>
+      <c r="S19">
+        <v>0.04130177144343463</v>
+      </c>
+      <c r="T19">
+        <v>0.04130177144343463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H20">
+        <v>315.250706</v>
+      </c>
+      <c r="I20">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J20">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.8811113333333332</v>
+      </c>
+      <c r="N20">
+        <v>2.643334</v>
+      </c>
+      <c r="O20">
+        <v>0.442673045622721</v>
+      </c>
+      <c r="P20">
+        <v>0.4426730456227211</v>
+      </c>
+      <c r="Q20">
+        <v>92.59032329931155</v>
+      </c>
+      <c r="R20">
+        <v>833.3129096938039</v>
+      </c>
+      <c r="S20">
+        <v>0.1787979350160331</v>
+      </c>
+      <c r="T20">
+        <v>0.1787979350160331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H21">
+        <v>315.250706</v>
+      </c>
+      <c r="I21">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J21">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1715383333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.514615</v>
+      </c>
+      <c r="O21">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="P21">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="Q21">
+        <v>18.02586022979889</v>
+      </c>
+      <c r="R21">
+        <v>162.23274206819</v>
+      </c>
+      <c r="S21">
+        <v>0.03480910824295223</v>
+      </c>
+      <c r="T21">
+        <v>0.03480910824295223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H22">
+        <v>1.186187</v>
+      </c>
+      <c r="I22">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J22">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.73425</v>
+      </c>
+      <c r="N22">
+        <v>2.20275</v>
+      </c>
+      <c r="O22">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="P22">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="Q22">
+        <v>0.29031926825</v>
+      </c>
+      <c r="R22">
+        <v>2.61287341425</v>
+      </c>
+      <c r="S22">
+        <v>0.0005606253851243624</v>
+      </c>
+      <c r="T22">
+        <v>0.0005606253851243627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H23">
+        <v>1.186187</v>
+      </c>
+      <c r="I23">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J23">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.203534</v>
+      </c>
+      <c r="N23">
+        <v>0.610602</v>
+      </c>
+      <c r="O23">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="P23">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="Q23">
+        <v>0.08047646161933332</v>
+      </c>
+      <c r="R23">
+        <v>0.7242881545739999</v>
+      </c>
+      <c r="S23">
+        <v>0.000155405280402999</v>
+      </c>
+      <c r="T23">
+        <v>0.000155405280402999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H24">
+        <v>1.186187</v>
+      </c>
+      <c r="I24">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J24">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.8811113333333332</v>
+      </c>
+      <c r="N24">
+        <v>2.643334</v>
+      </c>
+      <c r="O24">
+        <v>0.442673045622721</v>
+      </c>
+      <c r="P24">
+        <v>0.4426730456227211</v>
+      </c>
+      <c r="Q24">
+        <v>0.3483876030508888</v>
+      </c>
+      <c r="R24">
+        <v>3.135488427458</v>
+      </c>
+      <c r="S24">
+        <v>0.0006727591155429901</v>
+      </c>
+      <c r="T24">
+        <v>0.0006727591155429903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H25">
+        <v>1.186187</v>
+      </c>
+      <c r="I25">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J25">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.1715383333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.514615</v>
+      </c>
+      <c r="O25">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="P25">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="Q25">
+        <v>0.06782551366722223</v>
+      </c>
+      <c r="R25">
+        <v>0.610429623005</v>
+      </c>
+      <c r="S25">
+        <v>0.0001309754772742135</v>
+      </c>
+      <c r="T25">
+        <v>0.0001309754772742135</v>
       </c>
     </row>
   </sheetData>
